--- a/Code/AsTuLuMain/AstuluProject/ExcelFiles/Uploads/Inventairebibliothèque201401182.xlsx
+++ b/Code/AsTuLuMain/AstuluProject/ExcelFiles/Uploads/Inventairebibliothèque201401182.xlsx
@@ -4232,8 +4232,8 @@
   <dimension ref="A1:O474"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
+      <pane ySplit="1" topLeftCell="A214" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E219" sqref="E219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
